--- a/mlzjdb/player.xlsx
+++ b/mlzjdb/player.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor.T\Desktop\mlzjdb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\phpstudy\PHPTutorial\WWW\mytest\web-study-git\mlzjdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -130,6 +130,72 @@
   </si>
   <si>
     <t>images/kof-6.ico</t>
+  </si>
+  <si>
+    <t>player7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>images/AR@3x.png</t>
+  </si>
+  <si>
+    <t>images/kof-7.ico</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>images/BR@3x.png</t>
+  </si>
+  <si>
+    <t>images/kof-8.ico</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>images/CU@3x.png</t>
+  </si>
+  <si>
+    <t>images/kof-9.ico</t>
+  </si>
+  <si>
+    <t>player10</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>images/IN@3x.png</t>
+  </si>
+  <si>
+    <t>images/kof-10.ico</t>
+  </si>
+  <si>
+    <t>player11</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>images/KR@3x.png</t>
+  </si>
+  <si>
+    <t>images/kof-11.ico</t>
+  </si>
+  <si>
+    <t>player12</t>
+  </si>
+  <si>
+    <t>荷兰</t>
+  </si>
+  <si>
+    <t>images/NL@3x.png</t>
+  </si>
+  <si>
+    <t>images/kof-12.ico</t>
   </si>
 </sst>
 </file>
@@ -459,9 +525,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -642,6 +710,126 @@
         <v>34</v>
       </c>
     </row>
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mlzjdb/player.xlsx
+++ b/mlzjdb/player.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -601,13 +601,19 @@
         <v>14</v>
       </c>
       <c r="G2">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="H2">
-        <v>255</v>
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>32767</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -833,6 +839,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
